--- a/Common/Style/Resource/Template/Import_Lehrer_Mitarbeiter.xlsx
+++ b/Common/Style/Resource/Template/Import_Lehrer_Mitarbeiter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\Datenimport feste Spalten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kundwzwickau.de\kuw\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E139C5-0ED4-40FA-92B0-0A2567454DA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623013FE-8DA9-4873-8395-078D6537ABD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrer_Mitarbeiter" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0000"/>
-    <numFmt numFmtId="165" formatCode="00000"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,49 +223,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -598,202 +576,202 @@
       <pane xSplit="5" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="2">
         <v>27523</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="2">
         <v>7</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vjXFMkXkTOUoJujz8VSUTJgJD3AkRDPJLOj7lSaKfauFUSzOM11cPL0WS9BrFA/O7bQi0vIh9gTtOEBTqkFSgQ==" saltValue="/nNpvz0q7j2t6BAKgGSyYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WnWs3JdozfpfCf7Z+KQlBsP5ZoKtHHw5lopoXX6ZHPy5p1OWnAxaCBqmYdmMo4ZV35YBj7jE3tQYs88lHRJ9+Q==" saltValue="JsgZ00KxZAL4NT9iaf+miw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:V2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Common/Style/Resource/Template/Import_Lehrer_Mitarbeiter.xlsx
+++ b/Common/Style/Resource/Template/Import_Lehrer_Mitarbeiter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kundwzwickau.de\kuw\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623013FE-8DA9-4873-8395-078D6537ABD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF721C-1018-4D6F-B1C3-569C8A6D2B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrer_Mitarbeiter" sheetId="1" r:id="rId1"/>
@@ -225,30 +225,32 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,11 +586,11 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -606,173 +608,143 @@
     <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="7">
         <v>27523</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="6">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WnWs3JdozfpfCf7Z+KQlBsP5ZoKtHHw5lopoXX6ZHPy5p1OWnAxaCBqmYdmMo4ZV35YBj7jE3tQYs88lHRJ9+Q==" saltValue="JsgZ00KxZAL4NT9iaf+miw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A2:V2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Vy8ByQqiZHgu1Niipng7UwrBMhdbctjoIjWErrLNgl9IDbFG1aTCCMpXAT9LkG1OV5W8GTQw++g2AcKpVUidKQ==" saltValue="zH2j5dbQW0ENoSotCQFvJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
+  <autoFilter ref="A2:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Common/Style/Resource/Template/Import_Lehrer_Mitarbeiter.xlsx
+++ b/Common/Style/Resource/Template/Import_Lehrer_Mitarbeiter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmiezik\Desktop\Schele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF721C-1018-4D6F-B1C3-569C8A6D2B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB696BC-147A-41BD-8707-54486BBD2968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrer_Mitarbeiter" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vy8ByQqiZHgu1Niipng7UwrBMhdbctjoIjWErrLNgl9IDbFG1aTCCMpXAT9LkG1OV5W8GTQw++g2AcKpVUidKQ==" saltValue="zH2j5dbQW0ENoSotCQFvJw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vHrEccZ2lvTeU9pREc21rQg8McntlXowB9DHOhzR7wBqRuiOc9R0PWC0UEGexnjWYcw1nz9VWYYfa5Zwc4Gxzg==" saltValue="V4POm2GzEFGm5KcKdh5u1g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:V2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
